--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,396 +522,6 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Please fly away or land with caution</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10-16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Vision sensor(s) blocked</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2-14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>23</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Adjust remote controller antennas</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>24</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9-11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>24</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>25</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2-12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>26</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>IMU attitude restricted Ensure aircraft is level .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Ensure aircraft is level</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3-6</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>29</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Manually adjust flight route or return to home</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6-13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>33</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2-14</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>38</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Contact DJI Support for assistance</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4-8</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>40</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Extended flight distance detected</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14-16</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>14-16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,6 +522,396 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Go to Profile &gt; Settings to update firmware</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Please fly away or land with caution</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10-16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vision sensor(s) blocked</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Adjust remote controller antennas</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4-7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9-11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>24</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2-12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>26</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IMU attitude restricted Ensure aircraft is level .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ensure aircraft is level</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3-6</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment Manually adjust flight route or return to home .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Downward vision sensor error Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Extended flight distance detected</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Event</t>
         </is>
       </c>
     </row>
